--- a/Multidimensional 0-1 Knapsack Problem/Improvement/Analysis.xlsx
+++ b/Multidimensional 0-1 Knapsack Problem/Improvement/Analysis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
   <si>
     <t>100-5-01</t>
   </si>
@@ -163,11 +163,56 @@
   <si>
     <t>max</t>
   </si>
+  <si>
+    <t>Time(seconds)</t>
+  </si>
+  <si>
+    <t>Difference with 18-19 best result</t>
+  </si>
+  <si>
+    <t>best 18-19</t>
+  </si>
+  <si>
+    <t>best Construction</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Result Good</t>
+  </si>
+  <si>
+    <t>Result Quick</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Construction1</t>
+  </si>
+  <si>
+    <t>Construction2</t>
+  </si>
+  <si>
+    <t>Construction3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,14 +243,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -375,16 +505,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -407,6 +527,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
       <color rgb="FFFF9933"/>
     </mruColors>
   </colors>
@@ -419,6 +540,1233 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Improving by the heuristic algorithms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Good</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$Y$2:$Y$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100-5-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100-5-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100-5-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100-5-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100-5-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250-10-01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250-10-02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250-10-03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250-10-04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250-10-05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500-30-01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500-30-02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500-30-03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500-30-04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500-30-05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$Z$2:$Z$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$Y$2:$Y$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100-5-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100-5-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100-5-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100-5-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100-5-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250-10-01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250-10-02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250-10-03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250-10-04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250-10-05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500-30-01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500-30-02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500-30-03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500-30-04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500-30-05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$AA$2:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="-49417760"/>
+        <c:axId val="-49412320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-49417760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-49412320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-49412320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-49417760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,26 +2032,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="Q75" sqref="Q75"/>
+    <sheetView tabSelected="1" topLeftCell="R16" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H1">
         <v>18</v>
       </c>
       <c r="I1">
         <v>19</v>
       </c>
-      <c r="J1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>22502</v>
+      </c>
+      <c r="C2">
+        <v>23984</v>
+      </c>
+      <c r="D2">
+        <v>23974</v>
+      </c>
+      <c r="E2">
+        <f>MAX(B2:D2)</f>
+        <v>23984</v>
+      </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
@@ -714,14 +2114,58 @@
         <v>24192</v>
       </c>
       <c r="J2">
-        <v>24285</v>
-      </c>
-      <c r="K2">
-        <f>J2-MAX(H2,I2)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="7:11" x14ac:dyDescent="0.3">
+        <f>MAX(H2:I2)</f>
+        <v>24192</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>24381</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.34614099999999998</v>
+      </c>
+      <c r="Q2">
+        <f>O2-J2</f>
+        <v>189</v>
+      </c>
+      <c r="U2">
+        <v>24192</v>
+      </c>
+      <c r="V2" s="4">
+        <v>6.8609999999999999E-3</v>
+      </c>
+      <c r="W2">
+        <f>U2-J2</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>O2-E2</f>
+        <v>397</v>
+      </c>
+      <c r="AA2">
+        <f>U2-E2</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>23970</v>
+      </c>
+      <c r="C3">
+        <v>23970</v>
+      </c>
+      <c r="D3">
+        <v>24274</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="0">MAX(B3:D3)</f>
+        <v>24274</v>
+      </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
@@ -732,14 +2176,58 @@
         <v>24109</v>
       </c>
       <c r="J3">
+        <f t="shared" ref="J3:J16" si="1">MAX(H3:I3)</f>
+        <v>24225</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>24274</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K16" si="0">J3-MAX(H3,I3)</f>
+      <c r="P3" s="3">
+        <v>0.21268599999999999</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q16" si="2">O3-J3</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="U3">
+        <v>24274</v>
+      </c>
+      <c r="V3" s="4">
+        <v>6.6839999999999998E-3</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W16" si="3">U3-J3</f>
+        <v>49</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z16" si="4">O3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA16" si="5">U3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>22584</v>
+      </c>
+      <c r="C4">
+        <v>23317</v>
+      </c>
+      <c r="D4">
+        <v>23278</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>23317</v>
+      </c>
       <c r="G4" t="s">
         <v>2</v>
       </c>
@@ -750,14 +2238,58 @@
         <v>23444</v>
       </c>
       <c r="J4">
-        <v>23476</v>
-      </c>
-      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>23444</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>23496</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.30851899999999999</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="U4">
+        <v>23449</v>
+      </c>
+      <c r="V4" s="4">
+        <v>6.685E-3</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="4"/>
+        <v>179</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>19627</v>
+      </c>
+      <c r="C5">
+        <v>22884</v>
+      </c>
+      <c r="D5">
+        <v>22893</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="7:11" x14ac:dyDescent="0.3">
+        <v>22893</v>
+      </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
@@ -768,14 +2300,58 @@
         <v>23262</v>
       </c>
       <c r="J5">
-        <v>23094</v>
-      </c>
-      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>23262</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>23389</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.41674699999999998</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="U5">
+        <v>23313</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1.1443999999999999E-2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>22026</v>
+      </c>
+      <c r="C6">
+        <v>23826</v>
+      </c>
+      <c r="D6">
+        <v>23792</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>-168</v>
-      </c>
-    </row>
-    <row r="6" spans="7:11" x14ac:dyDescent="0.3">
+        <v>23826</v>
+      </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
@@ -786,14 +2362,58 @@
         <v>23826</v>
       </c>
       <c r="J6">
+        <f t="shared" si="1"/>
         <v>23826</v>
       </c>
-      <c r="K6">
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>23991</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.41366199999999997</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="U6">
+        <v>23826</v>
+      </c>
+      <c r="V6" s="4">
+        <v>8.6569999999999998E-3</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>56525</v>
+      </c>
+      <c r="C7">
+        <v>58393</v>
+      </c>
+      <c r="D7">
+        <v>58229</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="7:11" x14ac:dyDescent="0.3">
+        <v>58393</v>
+      </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
@@ -804,14 +2424,58 @@
         <v>58872</v>
       </c>
       <c r="J7">
-        <v>58965</v>
-      </c>
-      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>58872</v>
+      </c>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>59021</v>
+      </c>
+      <c r="P7" s="3">
+        <v>8.9191099999999999</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="U7">
+        <v>58776</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1.1819E-2</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="3"/>
+        <v>-96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="4"/>
+        <v>628</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="5"/>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>56421</v>
+      </c>
+      <c r="C8">
+        <v>57991</v>
+      </c>
+      <c r="D8">
+        <v>58145</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="7:11" x14ac:dyDescent="0.3">
+        <v>58145</v>
+      </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
@@ -822,14 +2486,58 @@
         <v>58367</v>
       </c>
       <c r="J8">
-        <v>58145</v>
-      </c>
-      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>58367</v>
+      </c>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>58629</v>
+      </c>
+      <c r="P8" s="3">
+        <v>5.97743</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="U8">
+        <v>58328</v>
+      </c>
+      <c r="V8" s="4">
+        <v>9.0639999999999991E-3</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="3"/>
+        <v>-39</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="4"/>
+        <v>484</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>55631</v>
+      </c>
+      <c r="C9">
+        <v>56942</v>
+      </c>
+      <c r="D9">
+        <v>57267</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>-222</v>
-      </c>
-    </row>
-    <row r="9" spans="7:11" x14ac:dyDescent="0.3">
+        <v>57267</v>
+      </c>
       <c r="G9" t="s">
         <v>7</v>
       </c>
@@ -840,14 +2548,58 @@
         <v>57594</v>
       </c>
       <c r="J9">
-        <v>57624</v>
-      </c>
-      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>57835</v>
+      </c>
+      <c r="N9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>57821</v>
+      </c>
+      <c r="P9" s="3">
+        <v>7.4457899999999997</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="U9">
+        <v>57514</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1.0781000000000001E-2</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="3"/>
+        <v>-321</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="4"/>
+        <v>554</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>58853</v>
+      </c>
+      <c r="C10">
+        <v>60296</v>
+      </c>
+      <c r="D10">
+        <v>60241</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>-211</v>
-      </c>
-    </row>
-    <row r="10" spans="7:11" x14ac:dyDescent="0.3">
+        <v>60296</v>
+      </c>
       <c r="G10" t="s">
         <v>8</v>
       </c>
@@ -858,14 +2610,58 @@
         <v>60624</v>
       </c>
       <c r="J10">
-        <v>60623</v>
-      </c>
-      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>60624</v>
+      </c>
+      <c r="N10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>60875</v>
+      </c>
+      <c r="P10" s="3">
+        <v>5.8184699999999996</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="U10">
+        <v>60677</v>
+      </c>
+      <c r="V10" s="4">
+        <v>9.9939999999999994E-3</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="4"/>
+        <v>579</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="5"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>52172</v>
+      </c>
+      <c r="C11">
+        <v>57643</v>
+      </c>
+      <c r="D11">
+        <v>57260</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="7:11" x14ac:dyDescent="0.3">
+        <v>57643</v>
+      </c>
       <c r="G11" t="s">
         <v>9</v>
       </c>
@@ -876,14 +2672,58 @@
         <v>57643</v>
       </c>
       <c r="J11">
+        <f t="shared" si="1"/>
+        <v>57645</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>57801</v>
+      </c>
+      <c r="P11" s="3">
+        <v>8.9160599999999999</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="U11">
         <v>57643</v>
       </c>
-      <c r="K11">
+      <c r="V11" s="4">
+        <v>1.3122999999999999E-2</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>110971</v>
+      </c>
+      <c r="C12">
+        <v>114188</v>
+      </c>
+      <c r="D12">
+        <v>114878</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="7:11" x14ac:dyDescent="0.3">
+        <v>114878</v>
+      </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -894,14 +2734,58 @@
         <v>115140</v>
       </c>
       <c r="J12">
-        <v>115038</v>
-      </c>
-      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>115249</v>
+      </c>
+      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>115154</v>
+      </c>
+      <c r="P12" s="3">
+        <v>7.0164299999999997</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>-95</v>
+      </c>
+      <c r="U12">
+        <v>115107</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0.13502500000000001</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="3"/>
+        <v>-142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="5"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>110870</v>
+      </c>
+      <c r="C13">
+        <v>113570</v>
+      </c>
+      <c r="D13">
+        <v>113760</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>-211</v>
-      </c>
-    </row>
-    <row r="13" spans="7:11" x14ac:dyDescent="0.3">
+        <v>113760</v>
+      </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
@@ -912,14 +2796,58 @@
         <v>114018</v>
       </c>
       <c r="J13">
+        <f t="shared" si="1"/>
+        <v>114018</v>
+      </c>
+      <c r="N13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13">
         <v>114246</v>
       </c>
-      <c r="K13">
+      <c r="P13" s="3">
+        <v>3.548</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="U13">
+        <v>114043</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0.11114300000000001</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="4"/>
+        <v>486</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="5"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>111931</v>
+      </c>
+      <c r="C14">
+        <v>115328</v>
+      </c>
+      <c r="D14">
+        <v>115340</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="7:11" x14ac:dyDescent="0.3">
+        <v>115340</v>
+      </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
@@ -930,14 +2858,58 @@
         <v>115925</v>
       </c>
       <c r="J14">
-        <v>115853</v>
-      </c>
-      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>115925</v>
+      </c>
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>116228</v>
+      </c>
+      <c r="P14" s="3">
+        <v>5.7345199999999998</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="U14">
+        <v>115617</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0.118854</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="3"/>
+        <v>-308</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="4"/>
+        <v>888</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="5"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>107744</v>
+      </c>
+      <c r="C15">
+        <v>113592</v>
+      </c>
+      <c r="D15">
+        <v>113807</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>-72</v>
-      </c>
-    </row>
-    <row r="15" spans="7:11" x14ac:dyDescent="0.3">
+        <v>113807</v>
+      </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
@@ -948,14 +2920,58 @@
         <v>114548</v>
       </c>
       <c r="J15">
-        <v>114473</v>
-      </c>
-      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>114548</v>
+      </c>
+      <c r="N15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>114645</v>
+      </c>
+      <c r="P15" s="3">
+        <v>4.3022799999999997</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="U15">
+        <v>114598</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0.14130799999999999</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="4"/>
+        <v>838</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="5"/>
+        <v>791</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>109101</v>
+      </c>
+      <c r="C16">
+        <v>114730</v>
+      </c>
+      <c r="D16">
+        <v>115226</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="16" spans="7:11" x14ac:dyDescent="0.3">
+        <v>115226</v>
+      </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
@@ -966,11 +2982,42 @@
         <v>115815</v>
       </c>
       <c r="J16">
+        <f t="shared" si="1"/>
+        <v>115815</v>
+      </c>
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16">
         <v>115928</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
+      <c r="P16" s="3">
+        <v>4.5452300000000001</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
         <v>113</v>
+      </c>
+      <c r="U16">
+        <v>115532</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0.14033399999999999</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="3"/>
+        <v>-283</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="4"/>
+        <v>702</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="5"/>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -1065,7 +3112,7 @@
         <v>24381</v>
       </c>
       <c r="W20">
-        <f>V20-MAX(H2,I2)</f>
+        <f t="shared" ref="W20:W34" si="6">V20-MAX(H2,I2)</f>
         <v>189</v>
       </c>
     </row>
@@ -1110,11 +3157,11 @@
         <v>24274</v>
       </c>
       <c r="V21">
-        <f t="shared" ref="V21:V34" si="1">MAX(A21:U21)</f>
+        <f t="shared" ref="V21:V34" si="7">MAX(A21:U21)</f>
         <v>24274</v>
       </c>
       <c r="W21">
-        <f>V21-MAX(H3,I3)</f>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
     </row>
@@ -1159,11 +3206,11 @@
         <v>23496</v>
       </c>
       <c r="V22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>23496</v>
       </c>
       <c r="W22">
-        <f>V22-MAX(H4,I4)</f>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
     </row>
@@ -1208,11 +3255,11 @@
         <v>23338</v>
       </c>
       <c r="V23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>23389</v>
       </c>
       <c r="W23">
-        <f>V23-MAX(H5,I5)</f>
+        <f t="shared" si="6"/>
         <v>127</v>
       </c>
     </row>
@@ -1257,11 +3304,11 @@
         <v>23932</v>
       </c>
       <c r="V24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>23991</v>
       </c>
       <c r="W24">
-        <f>V24-MAX(H6,I6)</f>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
     </row>
@@ -1306,11 +3353,11 @@
         <v>59021</v>
       </c>
       <c r="V25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>59021</v>
       </c>
       <c r="W25">
-        <f>V25-MAX(H7,I7)</f>
+        <f t="shared" si="6"/>
         <v>149</v>
       </c>
     </row>
@@ -1355,11 +3402,11 @@
         <v>58346</v>
       </c>
       <c r="V26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>58629</v>
       </c>
       <c r="W26">
-        <f>V26-MAX(H8,I8)</f>
+        <f t="shared" si="6"/>
         <v>262</v>
       </c>
     </row>
@@ -1404,11 +3451,11 @@
         <v>57566</v>
       </c>
       <c r="V27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>57821</v>
       </c>
       <c r="W27">
-        <f>V27-MAX(H9,I9)</f>
+        <f t="shared" si="6"/>
         <v>-14</v>
       </c>
     </row>
@@ -1453,11 +3500,11 @@
         <v>60875</v>
       </c>
       <c r="V28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>60875</v>
       </c>
       <c r="W28">
-        <f>V28-MAX(H10,I10)</f>
+        <f t="shared" si="6"/>
         <v>251</v>
       </c>
     </row>
@@ -1502,11 +3549,11 @@
         <v>57801</v>
       </c>
       <c r="V29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>57801</v>
       </c>
       <c r="W29">
-        <f>V29-MAX(H11,I11)</f>
+        <f t="shared" si="6"/>
         <v>156</v>
       </c>
     </row>
@@ -1548,11 +3595,11 @@
         <v>115038</v>
       </c>
       <c r="V30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>115038</v>
       </c>
       <c r="W30">
-        <f>V30-MAX(H12,I12)</f>
+        <f t="shared" si="6"/>
         <v>-211</v>
       </c>
     </row>
@@ -1594,11 +3641,11 @@
         <v>114246</v>
       </c>
       <c r="V31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>114246</v>
       </c>
       <c r="W31">
-        <f>V31-MAX(H13,I13)</f>
+        <f t="shared" si="6"/>
         <v>228</v>
       </c>
     </row>
@@ -1640,11 +3687,11 @@
         <v>115853</v>
       </c>
       <c r="V32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>115853</v>
       </c>
       <c r="W32">
-        <f>V32-MAX(H14,I14)</f>
+        <f t="shared" si="6"/>
         <v>-72</v>
       </c>
     </row>
@@ -1686,11 +3733,11 @@
         <v>114473</v>
       </c>
       <c r="V33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>114645</v>
       </c>
       <c r="W33">
-        <f>V33-MAX(H15,I15)</f>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
     </row>
@@ -1732,11 +3779,11 @@
         <v>115928</v>
       </c>
       <c r="V34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>115928</v>
       </c>
       <c r="W34">
-        <f>V34-MAX(H16,I16)</f>
+        <f t="shared" si="6"/>
         <v>113</v>
       </c>
     </row>
@@ -1747,6 +3794,9 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
       <c r="E39">
         <v>2</v>
       </c>
@@ -1756,6 +3806,9 @@
       <c r="G39" t="s">
         <v>20</v>
       </c>
+      <c r="I39" t="s">
+        <v>54</v>
+      </c>
       <c r="J39">
         <v>3</v>
       </c>
@@ -1765,14 +3818,23 @@
       <c r="L39" t="s">
         <v>20</v>
       </c>
+      <c r="O39" t="s">
+        <v>55</v>
+      </c>
       <c r="P39">
         <v>4</v>
       </c>
       <c r="Q39" t="s">
         <v>28</v>
       </c>
+      <c r="R39" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
       <c r="E40">
         <v>23393</v>
       </c>
@@ -1783,6 +3845,9 @@
         <f>F40-E40</f>
         <v>184</v>
       </c>
+      <c r="I40" t="s">
+        <v>0</v>
+      </c>
       <c r="J40">
         <v>23919</v>
       </c>
@@ -1793,6 +3858,9 @@
         <f>K40-J40</f>
         <v>0</v>
       </c>
+      <c r="O40" t="s">
+        <v>0</v>
+      </c>
       <c r="P40">
         <v>24196</v>
       </c>
@@ -1805,6 +3873,9 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
       <c r="E41">
         <v>24225</v>
       </c>
@@ -1812,8 +3883,11 @@
         <v>24225</v>
       </c>
       <c r="G41">
-        <f t="shared" ref="G41:G54" si="2">F41-E41</f>
+        <f t="shared" ref="G41:G54" si="8">F41-E41</f>
         <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
       </c>
       <c r="J41">
         <v>24117</v>
@@ -1822,8 +3896,11 @@
         <v>24117</v>
       </c>
       <c r="L41">
-        <f t="shared" ref="L41:L54" si="3">K41-J41</f>
+        <f t="shared" ref="L41:L54" si="9">K41-J41</f>
         <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1</v>
       </c>
       <c r="P41">
         <v>24274</v>
@@ -1832,11 +3909,14 @@
         <v>24274</v>
       </c>
       <c r="R41">
-        <f t="shared" ref="R41:R49" si="4">Q41-P41</f>
+        <f t="shared" ref="R41:R49" si="10">Q41-P41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
       <c r="E42">
         <v>23320</v>
       </c>
@@ -1844,8 +3924,11 @@
         <v>23320</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2</v>
       </c>
       <c r="J42">
         <v>23361</v>
@@ -1854,8 +3937,11 @@
         <v>23361</v>
       </c>
       <c r="L42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>2</v>
       </c>
       <c r="P42">
         <v>23464</v>
@@ -1864,11 +3950,14 @@
         <v>23464</v>
       </c>
       <c r="R42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
       <c r="E43">
         <v>22306</v>
       </c>
@@ -1876,8 +3965,11 @@
         <v>22306</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>3</v>
       </c>
       <c r="J43">
         <v>23104</v>
@@ -1886,8 +3978,11 @@
         <v>23104</v>
       </c>
       <c r="L43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>3</v>
       </c>
       <c r="P43">
         <v>23241</v>
@@ -1896,11 +3991,14 @@
         <v>23241</v>
       </c>
       <c r="R43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
       <c r="E44">
         <v>23328</v>
       </c>
@@ -1908,8 +4006,11 @@
         <v>23328</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>4</v>
       </c>
       <c r="J44">
         <v>23592</v>
@@ -1918,8 +4019,11 @@
         <v>23592</v>
       </c>
       <c r="L44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>4</v>
       </c>
       <c r="P44">
         <v>23991</v>
@@ -1928,11 +4032,14 @@
         <v>23991</v>
       </c>
       <c r="R44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
       <c r="E45">
         <v>58341</v>
       </c>
@@ -1940,8 +4047,11 @@
         <v>58341</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
       </c>
       <c r="J45">
         <v>58285</v>
@@ -1950,8 +4060,11 @@
         <v>58285</v>
       </c>
       <c r="L45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>5</v>
       </c>
       <c r="P45">
         <v>58985</v>
@@ -1960,11 +4073,14 @@
         <v>58985</v>
       </c>
       <c r="R45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
       <c r="E46">
         <v>58320</v>
       </c>
@@ -1972,8 +4088,11 @@
         <v>58320</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>6</v>
       </c>
       <c r="J46">
         <v>58483</v>
@@ -1982,8 +4101,11 @@
         <v>58483</v>
       </c>
       <c r="L46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>6</v>
       </c>
       <c r="P46">
         <v>58556</v>
@@ -1992,11 +4114,14 @@
         <v>58556</v>
       </c>
       <c r="R46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
       <c r="E47">
         <v>57271</v>
       </c>
@@ -2004,8 +4129,11 @@
         <v>57271</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
       </c>
       <c r="J47">
         <v>57228</v>
@@ -2014,8 +4142,11 @@
         <v>57228</v>
       </c>
       <c r="L47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>7</v>
       </c>
       <c r="P47">
         <v>57744</v>
@@ -2024,11 +4155,14 @@
         <v>57744</v>
       </c>
       <c r="R47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
       <c r="E48">
         <v>60538</v>
       </c>
@@ -2036,8 +4170,11 @@
         <v>60538</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>8</v>
       </c>
       <c r="J48">
         <v>60036</v>
@@ -2046,8 +4183,11 @@
         <v>60388</v>
       </c>
       <c r="L48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>352</v>
+      </c>
+      <c r="O48" t="s">
+        <v>8</v>
       </c>
       <c r="P48">
         <v>60788</v>
@@ -2056,11 +4196,14 @@
         <v>60788</v>
       </c>
       <c r="R48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
       <c r="E49">
         <v>56710</v>
       </c>
@@ -2068,8 +4211,11 @@
         <v>57103</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>393</v>
+      </c>
+      <c r="I49" t="s">
+        <v>9</v>
       </c>
       <c r="J49">
         <v>56643</v>
@@ -2078,8 +4224,11 @@
         <v>57208</v>
       </c>
       <c r="L49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>565</v>
+      </c>
+      <c r="O49" t="s">
+        <v>9</v>
       </c>
       <c r="P49">
         <v>57594</v>
@@ -2088,11 +4237,14 @@
         <v>57681</v>
       </c>
       <c r="R49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
       <c r="E50">
         <v>113299</v>
       </c>
@@ -2100,8 +4252,11 @@
         <v>113530</v>
       </c>
       <c r="G50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>231</v>
+      </c>
+      <c r="I50" t="s">
+        <v>10</v>
       </c>
       <c r="J50">
         <v>113424</v>
@@ -2110,11 +4265,14 @@
         <v>114594</v>
       </c>
       <c r="L50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1170</v>
       </c>
     </row>
-    <row r="51" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
       <c r="E51">
         <v>112924</v>
       </c>
@@ -2122,8 +4280,11 @@
         <v>112924</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
       </c>
       <c r="J51">
         <v>112733</v>
@@ -2132,11 +4293,14 @@
         <v>113468</v>
       </c>
       <c r="L51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>735</v>
       </c>
     </row>
-    <row r="52" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
       <c r="E52">
         <v>114007</v>
       </c>
@@ -2144,8 +4308,11 @@
         <v>114140</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>133</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
       </c>
       <c r="J52">
         <v>114679</v>
@@ -2154,11 +4321,14 @@
         <v>115108</v>
       </c>
       <c r="L52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>429</v>
       </c>
     </row>
-    <row r="53" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
       <c r="E53">
         <v>112744</v>
       </c>
@@ -2166,8 +4336,11 @@
         <v>112761</v>
       </c>
       <c r="G53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
       </c>
       <c r="J53">
         <v>112907</v>
@@ -2176,11 +4349,14 @@
         <v>113515</v>
       </c>
       <c r="L53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>608</v>
       </c>
     </row>
-    <row r="54" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
       <c r="E54">
         <v>113335</v>
       </c>
@@ -2188,8 +4364,11 @@
         <v>113919</v>
       </c>
       <c r="G54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>584</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
       </c>
       <c r="J54">
         <v>114088</v>
@@ -2198,19 +4377,28 @@
         <v>114088</v>
       </c>
       <c r="L54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:23" x14ac:dyDescent="0.3">
       <c r="I59" t="s">
         <v>44</v>
       </c>
       <c r="J59" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="M59" t="s">
+        <v>56</v>
+      </c>
+      <c r="N59" t="s">
+        <v>57</v>
+      </c>
+      <c r="O59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="4:23" x14ac:dyDescent="0.3">
       <c r="E60">
         <v>24196</v>
       </c>
@@ -2266,7 +4454,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:23" x14ac:dyDescent="0.3">
       <c r="E61">
         <v>24274</v>
       </c>
@@ -2280,11 +4468,11 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <f t="shared" ref="I61:I74" si="5">MAX(E61:G61)</f>
+        <f t="shared" ref="I61:I74" si="11">MAX(E61:G61)</f>
         <v>24274</v>
       </c>
       <c r="J61">
-        <f t="shared" ref="J61:J74" si="6">I61-MAX(H3:I3)</f>
+        <f t="shared" ref="J61:J74" si="12">I61-MAX(H3:I3)</f>
         <v>49</v>
       </c>
       <c r="M61">
@@ -2297,11 +4485,11 @@
         <v>24274</v>
       </c>
       <c r="P61">
-        <f t="shared" ref="P61:P74" si="7">MAX(M61:O61)</f>
+        <f t="shared" ref="P61:P74" si="13">MAX(M61:O61)</f>
         <v>24274</v>
       </c>
       <c r="Q61">
-        <f t="shared" ref="Q61:Q74" si="8">P61-MAX(H3:I3)</f>
+        <f t="shared" ref="Q61:Q74" si="14">P61-MAX(H3:I3)</f>
         <v>49</v>
       </c>
       <c r="S61">
@@ -2314,15 +4502,15 @@
         <v>24274</v>
       </c>
       <c r="V61">
-        <f t="shared" ref="V61:V74" si="9">MAX(S61:U61)</f>
+        <f t="shared" ref="V61:V74" si="15">MAX(S61:U61)</f>
         <v>24274</v>
       </c>
       <c r="W61">
-        <f t="shared" ref="W61:W74" si="10">V61-MAX(H3:I3)</f>
+        <f t="shared" ref="W61:W74" si="16">V61-MAX(H3:I3)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:23" x14ac:dyDescent="0.3">
       <c r="E62">
         <v>23480</v>
       </c>
@@ -2336,11 +4524,11 @@
         <v>31</v>
       </c>
       <c r="I62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>23496</v>
       </c>
       <c r="J62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>52</v>
       </c>
       <c r="M62">
@@ -2353,11 +4541,11 @@
         <v>23494</v>
       </c>
       <c r="P62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>23496</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>52</v>
       </c>
       <c r="S62">
@@ -2370,15 +4558,15 @@
         <v>23494</v>
       </c>
       <c r="V62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>23496</v>
       </c>
       <c r="W62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:23" x14ac:dyDescent="0.3">
       <c r="E63">
         <v>23241</v>
       </c>
@@ -2392,11 +4580,11 @@
         <v>32</v>
       </c>
       <c r="I63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>23389</v>
       </c>
       <c r="J63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>127</v>
       </c>
       <c r="M63">
@@ -2409,11 +4597,11 @@
         <v>23338</v>
       </c>
       <c r="P63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>23389</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>127</v>
       </c>
       <c r="S63">
@@ -2426,15 +4614,15 @@
         <v>23338</v>
       </c>
       <c r="V63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>23389</v>
       </c>
       <c r="W63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="5:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:23" x14ac:dyDescent="0.3">
       <c r="E64">
         <v>23991</v>
       </c>
@@ -2448,11 +4636,11 @@
         <v>33</v>
       </c>
       <c r="I64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>23991</v>
       </c>
       <c r="J64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>165</v>
       </c>
       <c r="M64">
@@ -2465,11 +4653,11 @@
         <v>23959</v>
       </c>
       <c r="P64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>23991</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>165</v>
       </c>
       <c r="S64">
@@ -2482,11 +4670,11 @@
         <v>23959</v>
       </c>
       <c r="V64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>23991</v>
       </c>
       <c r="W64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>165</v>
       </c>
     </row>
@@ -2504,11 +4692,11 @@
         <v>34</v>
       </c>
       <c r="I65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>58965</v>
       </c>
       <c r="J65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="M65">
@@ -2521,11 +4709,11 @@
         <v>58740</v>
       </c>
       <c r="P65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>59021</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>149</v>
       </c>
       <c r="S65">
@@ -2538,11 +4726,11 @@
         <v>58611</v>
       </c>
       <c r="V65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>59021</v>
       </c>
       <c r="W65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
     </row>
@@ -2560,11 +4748,11 @@
         <v>35</v>
       </c>
       <c r="I66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>58483</v>
       </c>
       <c r="J66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>116</v>
       </c>
       <c r="M66">
@@ -2577,11 +4765,11 @@
         <v>58145</v>
       </c>
       <c r="P66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>58629</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>262</v>
       </c>
       <c r="S66">
@@ -2594,11 +4782,11 @@
         <v>58346</v>
       </c>
       <c r="V66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>58629</v>
       </c>
       <c r="W66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>262</v>
       </c>
     </row>
@@ -2616,11 +4804,11 @@
         <v>36</v>
       </c>
       <c r="I67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>57835</v>
       </c>
       <c r="J67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M67">
@@ -2633,11 +4821,11 @@
         <v>57624</v>
       </c>
       <c r="P67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>57821</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-14</v>
       </c>
       <c r="S67">
@@ -2650,11 +4838,11 @@
         <v>57566</v>
       </c>
       <c r="V67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>57821</v>
       </c>
       <c r="W67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-14</v>
       </c>
     </row>
@@ -2672,11 +4860,11 @@
         <v>37</v>
       </c>
       <c r="I68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>60623</v>
       </c>
       <c r="J68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="M68">
@@ -2689,11 +4877,11 @@
         <v>60241</v>
       </c>
       <c r="P68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>60875</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>251</v>
       </c>
       <c r="S68">
@@ -2706,11 +4894,11 @@
         <v>60343</v>
       </c>
       <c r="V68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>60875</v>
       </c>
       <c r="W68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>251</v>
       </c>
     </row>
@@ -2728,11 +4916,11 @@
         <v>38</v>
       </c>
       <c r="I69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>57643</v>
       </c>
       <c r="J69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
       <c r="M69">
@@ -2745,11 +4933,11 @@
         <v>57571</v>
       </c>
       <c r="P69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>57801</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>156</v>
       </c>
       <c r="S69">
@@ -2762,11 +4950,11 @@
         <v>57712</v>
       </c>
       <c r="V69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>57801</v>
       </c>
       <c r="W69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>156</v>
       </c>
     </row>
@@ -2784,11 +4972,11 @@
         <v>39</v>
       </c>
       <c r="I70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>115154</v>
       </c>
       <c r="J70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-95</v>
       </c>
       <c r="M70">
@@ -2801,11 +4989,11 @@
         <v>115038</v>
       </c>
       <c r="P70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>115154</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-95</v>
       </c>
       <c r="S70">
@@ -2818,11 +5006,11 @@
         <v>115038</v>
       </c>
       <c r="V70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>115154</v>
       </c>
       <c r="W70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-95</v>
       </c>
     </row>
@@ -2840,11 +5028,11 @@
         <v>40</v>
       </c>
       <c r="I71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>114246</v>
       </c>
       <c r="J71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>228</v>
       </c>
       <c r="M71">
@@ -2857,11 +5045,11 @@
         <v>114246</v>
       </c>
       <c r="P71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>114246</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>228</v>
       </c>
       <c r="S71">
@@ -2874,11 +5062,11 @@
         <v>114246</v>
       </c>
       <c r="V71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>114246</v>
       </c>
       <c r="W71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>228</v>
       </c>
     </row>
@@ -2896,11 +5084,11 @@
         <v>41</v>
       </c>
       <c r="I72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>116228</v>
       </c>
       <c r="J72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>303</v>
       </c>
       <c r="M72">
@@ -2913,11 +5101,11 @@
         <v>115853</v>
       </c>
       <c r="P72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>116228</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>303</v>
       </c>
       <c r="S72">
@@ -2930,11 +5118,11 @@
         <v>115853</v>
       </c>
       <c r="V72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>116228</v>
       </c>
       <c r="W72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>303</v>
       </c>
     </row>
@@ -2952,11 +5140,11 @@
         <v>42</v>
       </c>
       <c r="I73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>114645</v>
       </c>
       <c r="J73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="M73">
@@ -2969,11 +5157,11 @@
         <v>114473</v>
       </c>
       <c r="P73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>114645</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="S73">
@@ -2986,11 +5174,11 @@
         <v>114473</v>
       </c>
       <c r="V73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>114645</v>
       </c>
       <c r="W73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>97</v>
       </c>
     </row>
@@ -3008,11 +5196,11 @@
         <v>43</v>
       </c>
       <c r="I74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>115928</v>
       </c>
       <c r="J74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>113</v>
       </c>
       <c r="M74">
@@ -3025,11 +5213,11 @@
         <v>115928</v>
       </c>
       <c r="P74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>115928</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>113</v>
       </c>
       <c r="S74">
@@ -3042,11 +5230,11 @@
         <v>115928</v>
       </c>
       <c r="V74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>115928</v>
       </c>
       <c r="W74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>113</v>
       </c>
     </row>
@@ -3064,91 +5252,1002 @@
         <v>2032</v>
       </c>
     </row>
+    <row r="78" spans="5:23" x14ac:dyDescent="0.3">
+      <c r="H78" s="1"/>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>4</v>
+      </c>
+      <c r="J95" t="s">
+        <v>21</v>
+      </c>
+      <c r="K95" t="s">
+        <v>22</v>
+      </c>
+      <c r="L95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M95" t="s">
+        <v>24</v>
+      </c>
+      <c r="N95" t="s">
+        <v>26</v>
+      </c>
+      <c r="W95" t="s">
+        <v>19</v>
+      </c>
+      <c r="X95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>23984</v>
+      </c>
+      <c r="C96">
+        <v>24192</v>
+      </c>
+      <c r="D96">
+        <v>24192</v>
+      </c>
+      <c r="E96">
+        <v>24285</v>
+      </c>
+      <c r="F96">
+        <v>24285</v>
+      </c>
+      <c r="G96">
+        <v>24160</v>
+      </c>
+      <c r="H96">
+        <v>24192</v>
+      </c>
+      <c r="I96">
+        <v>24329</v>
+      </c>
+      <c r="J96">
+        <v>24329</v>
+      </c>
+      <c r="K96">
+        <v>24329</v>
+      </c>
+      <c r="L96">
+        <v>24381</v>
+      </c>
+      <c r="M96">
+        <v>24196</v>
+      </c>
+      <c r="N96">
+        <v>24329</v>
+      </c>
+      <c r="W96">
+        <f>MAX(B96:V96)</f>
+        <v>24381</v>
+      </c>
+      <c r="X96">
+        <f t="shared" ref="X96:X110" si="17">W96-MAX(I78,J78)</f>
+        <v>24381</v>
+      </c>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>24274</v>
+      </c>
+      <c r="C97">
+        <v>24274</v>
+      </c>
+      <c r="D97">
+        <v>24274</v>
+      </c>
+      <c r="E97">
+        <v>24274</v>
+      </c>
+      <c r="F97">
+        <v>24274</v>
+      </c>
+      <c r="G97">
+        <v>24274</v>
+      </c>
+      <c r="H97">
+        <v>24274</v>
+      </c>
+      <c r="I97">
+        <v>24274</v>
+      </c>
+      <c r="J97">
+        <v>24274</v>
+      </c>
+      <c r="K97">
+        <v>24274</v>
+      </c>
+      <c r="L97">
+        <v>24274</v>
+      </c>
+      <c r="M97">
+        <v>24274</v>
+      </c>
+      <c r="N97">
+        <v>24274</v>
+      </c>
+      <c r="W97">
+        <f t="shared" ref="W97:W110" si="18">MAX(B97:V97)</f>
+        <v>24274</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="17"/>
+        <v>24274</v>
+      </c>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>23317</v>
+      </c>
+      <c r="C98">
+        <v>23449</v>
+      </c>
+      <c r="D98">
+        <v>23449</v>
+      </c>
+      <c r="E98">
+        <v>23476</v>
+      </c>
+      <c r="F98">
+        <v>23476</v>
+      </c>
+      <c r="G98">
+        <v>23476</v>
+      </c>
+      <c r="H98">
+        <v>23449</v>
+      </c>
+      <c r="I98">
+        <v>23496</v>
+      </c>
+      <c r="J98">
+        <v>23496</v>
+      </c>
+      <c r="K98">
+        <v>23496</v>
+      </c>
+      <c r="L98">
+        <v>23494</v>
+      </c>
+      <c r="M98">
+        <v>23480</v>
+      </c>
+      <c r="N98">
+        <v>23496</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="18"/>
+        <v>23496</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="17"/>
+        <v>23496</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>22893</v>
+      </c>
+      <c r="C99">
+        <v>23273</v>
+      </c>
+      <c r="D99">
+        <v>23273</v>
+      </c>
+      <c r="E99">
+        <v>23094</v>
+      </c>
+      <c r="F99">
+        <v>23094</v>
+      </c>
+      <c r="G99">
+        <v>23094</v>
+      </c>
+      <c r="H99">
+        <v>23040</v>
+      </c>
+      <c r="I99">
+        <v>23338</v>
+      </c>
+      <c r="J99">
+        <v>23338</v>
+      </c>
+      <c r="K99">
+        <v>23389</v>
+      </c>
+      <c r="L99">
+        <v>23338</v>
+      </c>
+      <c r="M99">
+        <v>23241</v>
+      </c>
+      <c r="N99">
+        <v>23338</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="18"/>
+        <v>23389</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="17"/>
+        <v>23389</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>23826</v>
+      </c>
+      <c r="C100">
+        <v>23826</v>
+      </c>
+      <c r="D100">
+        <v>23826</v>
+      </c>
+      <c r="E100">
+        <v>23826</v>
+      </c>
+      <c r="F100">
+        <v>23826</v>
+      </c>
+      <c r="G100">
+        <v>23826</v>
+      </c>
+      <c r="H100">
+        <v>23826</v>
+      </c>
+      <c r="I100">
+        <v>23932</v>
+      </c>
+      <c r="J100">
+        <v>23932</v>
+      </c>
+      <c r="K100">
+        <v>23932</v>
+      </c>
+      <c r="L100">
+        <v>23959</v>
+      </c>
+      <c r="M100">
+        <v>23991</v>
+      </c>
+      <c r="N100">
+        <v>23932</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="18"/>
+        <v>23991</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="17"/>
+        <v>23991</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>58393</v>
+      </c>
+      <c r="C101">
+        <v>58776</v>
+      </c>
+      <c r="D101">
+        <v>58776</v>
+      </c>
+      <c r="E101">
+        <v>58965</v>
+      </c>
+      <c r="F101">
+        <v>58965</v>
+      </c>
+      <c r="G101">
+        <v>58965</v>
+      </c>
+      <c r="H101">
+        <v>58776</v>
+      </c>
+      <c r="I101">
+        <v>59021</v>
+      </c>
+      <c r="J101">
+        <v>59021</v>
+      </c>
+      <c r="K101">
+        <v>59021</v>
+      </c>
+      <c r="L101">
+        <v>58611</v>
+      </c>
+      <c r="M101">
+        <v>58985</v>
+      </c>
+      <c r="N101">
+        <v>59021</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="18"/>
+        <v>59021</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="17"/>
+        <v>59021</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>58145</v>
+      </c>
+      <c r="C102">
+        <v>58145</v>
+      </c>
+      <c r="D102">
+        <v>58145</v>
+      </c>
+      <c r="E102">
+        <v>58145</v>
+      </c>
+      <c r="F102">
+        <v>58145</v>
+      </c>
+      <c r="G102">
+        <v>58145</v>
+      </c>
+      <c r="H102">
+        <v>58145</v>
+      </c>
+      <c r="I102">
+        <v>58346</v>
+      </c>
+      <c r="J102">
+        <v>58346</v>
+      </c>
+      <c r="K102">
+        <v>58629</v>
+      </c>
+      <c r="L102">
+        <v>58346</v>
+      </c>
+      <c r="M102">
+        <v>58556</v>
+      </c>
+      <c r="N102">
+        <v>58346</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="18"/>
+        <v>58629</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="17"/>
+        <v>58629</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>57267</v>
+      </c>
+      <c r="C103">
+        <v>57528</v>
+      </c>
+      <c r="D103">
+        <v>57528</v>
+      </c>
+      <c r="E103">
+        <v>57624</v>
+      </c>
+      <c r="F103">
+        <v>57624</v>
+      </c>
+      <c r="G103">
+        <v>57624</v>
+      </c>
+      <c r="H103">
+        <v>57408</v>
+      </c>
+      <c r="I103">
+        <v>57511</v>
+      </c>
+      <c r="J103">
+        <v>57511</v>
+      </c>
+      <c r="K103">
+        <v>57821</v>
+      </c>
+      <c r="L103">
+        <v>57511</v>
+      </c>
+      <c r="M103">
+        <v>57744</v>
+      </c>
+      <c r="N103">
+        <v>57566</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="18"/>
+        <v>57821</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="17"/>
+        <v>57821</v>
+      </c>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>60296</v>
+      </c>
+      <c r="C104">
+        <v>60624</v>
+      </c>
+      <c r="D104">
+        <v>60624</v>
+      </c>
+      <c r="E104">
+        <v>60623</v>
+      </c>
+      <c r="F104">
+        <v>60623</v>
+      </c>
+      <c r="G104">
+        <v>60593</v>
+      </c>
+      <c r="H104">
+        <v>60624</v>
+      </c>
+      <c r="I104">
+        <v>60875</v>
+      </c>
+      <c r="J104">
+        <v>60875</v>
+      </c>
+      <c r="K104">
+        <v>60875</v>
+      </c>
+      <c r="L104">
+        <v>60319</v>
+      </c>
+      <c r="M104">
+        <v>60788</v>
+      </c>
+      <c r="N104">
+        <v>60875</v>
+      </c>
+      <c r="W104">
+        <f t="shared" si="18"/>
+        <v>60875</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="17"/>
+        <v>60875</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>57643</v>
+      </c>
+      <c r="C105">
+        <v>57643</v>
+      </c>
+      <c r="D105">
+        <v>57643</v>
+      </c>
+      <c r="E105">
+        <v>57643</v>
+      </c>
+      <c r="F105">
+        <v>57643</v>
+      </c>
+      <c r="G105">
+        <v>57643</v>
+      </c>
+      <c r="H105">
+        <v>57643</v>
+      </c>
+      <c r="I105">
+        <v>57726</v>
+      </c>
+      <c r="J105">
+        <v>57726</v>
+      </c>
+      <c r="K105">
+        <v>57726</v>
+      </c>
+      <c r="L105">
+        <v>57712</v>
+      </c>
+      <c r="M105">
+        <v>57594</v>
+      </c>
+      <c r="N105">
+        <v>57801</v>
+      </c>
+      <c r="W105">
+        <f t="shared" si="18"/>
+        <v>57801</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="17"/>
+        <v>57801</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>114878</v>
+      </c>
+      <c r="C106">
+        <v>115038</v>
+      </c>
+      <c r="D106">
+        <v>115038</v>
+      </c>
+      <c r="E106">
+        <v>115038</v>
+      </c>
+      <c r="F106">
+        <v>115038</v>
+      </c>
+      <c r="G106">
+        <v>114878</v>
+      </c>
+      <c r="H106">
+        <v>115038</v>
+      </c>
+      <c r="J106">
+        <v>115038</v>
+      </c>
+      <c r="K106">
+        <v>115038</v>
+      </c>
+      <c r="L106">
+        <v>115038</v>
+      </c>
+      <c r="M106">
+        <v>113798</v>
+      </c>
+      <c r="N106">
+        <v>115038</v>
+      </c>
+      <c r="W106">
+        <f t="shared" si="18"/>
+        <v>115038</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="17"/>
+        <v>115038</v>
+      </c>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>113760</v>
+      </c>
+      <c r="C107">
+        <v>114038</v>
+      </c>
+      <c r="D107">
+        <v>114038</v>
+      </c>
+      <c r="E107">
+        <v>114246</v>
+      </c>
+      <c r="F107">
+        <v>114246</v>
+      </c>
+      <c r="G107">
+        <v>114246</v>
+      </c>
+      <c r="H107">
+        <v>114038</v>
+      </c>
+      <c r="J107">
+        <v>114246</v>
+      </c>
+      <c r="K107">
+        <v>114199</v>
+      </c>
+      <c r="L107">
+        <v>114246</v>
+      </c>
+      <c r="M107">
+        <v>113599</v>
+      </c>
+      <c r="N107">
+        <v>114246</v>
+      </c>
+      <c r="W107">
+        <f t="shared" si="18"/>
+        <v>114246</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="17"/>
+        <v>114246</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>115340</v>
+      </c>
+      <c r="C108">
+        <v>115576</v>
+      </c>
+      <c r="D108">
+        <v>115576</v>
+      </c>
+      <c r="E108">
+        <v>115853</v>
+      </c>
+      <c r="F108">
+        <v>115853</v>
+      </c>
+      <c r="G108">
+        <v>115853</v>
+      </c>
+      <c r="H108">
+        <v>115576</v>
+      </c>
+      <c r="J108">
+        <v>115853</v>
+      </c>
+      <c r="K108">
+        <v>115843</v>
+      </c>
+      <c r="L108">
+        <v>115853</v>
+      </c>
+      <c r="M108">
+        <v>114679</v>
+      </c>
+      <c r="N108">
+        <v>115853</v>
+      </c>
+      <c r="W108">
+        <f t="shared" si="18"/>
+        <v>115853</v>
+      </c>
+      <c r="X108">
+        <f t="shared" si="17"/>
+        <v>115853</v>
+      </c>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>113807</v>
+      </c>
+      <c r="C109">
+        <v>114005</v>
+      </c>
+      <c r="D109">
+        <v>114005</v>
+      </c>
+      <c r="E109">
+        <v>114473</v>
+      </c>
+      <c r="F109">
+        <v>114473</v>
+      </c>
+      <c r="G109">
+        <v>114473</v>
+      </c>
+      <c r="H109">
+        <v>114005</v>
+      </c>
+      <c r="J109">
+        <v>114473</v>
+      </c>
+      <c r="K109">
+        <v>114645</v>
+      </c>
+      <c r="L109">
+        <v>114473</v>
+      </c>
+      <c r="M109">
+        <v>113745</v>
+      </c>
+      <c r="N109">
+        <v>114473</v>
+      </c>
+      <c r="W109">
+        <f t="shared" si="18"/>
+        <v>114645</v>
+      </c>
+      <c r="X109">
+        <f t="shared" si="17"/>
+        <v>114645</v>
+      </c>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>115226</v>
+      </c>
+      <c r="C110">
+        <v>115532</v>
+      </c>
+      <c r="D110">
+        <v>115532</v>
+      </c>
+      <c r="E110">
+        <v>115928</v>
+      </c>
+      <c r="F110">
+        <v>115928</v>
+      </c>
+      <c r="G110">
+        <v>115928</v>
+      </c>
+      <c r="H110">
+        <v>115532</v>
+      </c>
+      <c r="J110">
+        <v>115928</v>
+      </c>
+      <c r="K110">
+        <v>115441</v>
+      </c>
+      <c r="L110">
+        <v>115928</v>
+      </c>
+      <c r="M110">
+        <v>114336</v>
+      </c>
+      <c r="N110">
+        <v>115928</v>
+      </c>
+      <c r="W110">
+        <f t="shared" si="18"/>
+        <v>115928</v>
+      </c>
+      <c r="X110">
+        <f t="shared" si="17"/>
+        <v>115928</v>
+      </c>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="X111">
+        <f>SUM(X96:X110)</f>
+        <v>989388</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="W20:W35">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:XFD21">
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>$V$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22:XFD22">
-    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
       <formula>$V$22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23:XFD23">
-    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="43" operator="equal">
       <formula>$V$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24:XFD24">
-    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="47" operator="equal">
       <formula>$V$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:XFD25">
-    <cfRule type="cellIs" dxfId="12" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="51" operator="equal">
       <formula>$V$25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26:XFD26">
-    <cfRule type="cellIs" dxfId="11" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="55" operator="equal">
       <formula>$V$26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27:XFD27">
-    <cfRule type="cellIs" dxfId="10" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="59" operator="equal">
       <formula>$V$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28:XFD28">
-    <cfRule type="cellIs" dxfId="9" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="63" operator="equal">
       <formula>$V$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X29:XFD29">
-    <cfRule type="cellIs" dxfId="8" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="67" operator="equal">
       <formula>$V$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X30:XFD30">
-    <cfRule type="cellIs" dxfId="7" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="71" operator="equal">
       <formula>$V$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X31:XFD31">
-    <cfRule type="cellIs" dxfId="6" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="75" operator="equal">
       <formula>$V$31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32:XFD32">
-    <cfRule type="cellIs" dxfId="5" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="79" operator="equal">
       <formula>$V$32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33:XFD33">
-    <cfRule type="cellIs" dxfId="4" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="83" operator="equal">
       <formula>$V$33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34:XFD34">
-    <cfRule type="cellIs" dxfId="3" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="87" operator="equal">
       <formula>$V$34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:V34">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>A20=MAX($A20:$U20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q16">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4C1F82DB-DC1C-44C6-BCE7-5084DC69D4D4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P16">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{05938EEA-DB0B-4067-86D8-60F511897A68}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W16">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1569BD6B-B7C0-4E70-9F9B-6840E8EB0A81}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79:M93">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>G79=MAX($A79:$U79)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X96:X111">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:W110">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>B96=MAX($A96:$U96)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G54">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40:L54">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R40:R49">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M60:P74">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>"M60=$P60"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>M60=$P60</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4C1F82DB-DC1C-44C6-BCE7-5084DC69D4D4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q2:Q16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{05938EEA-DB0B-4067-86D8-60F511897A68}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P2:P16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1569BD6B-B7C0-4E70-9F9B-6840E8EB0A81}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W2:W16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>